--- a/TankSurvivors/Assets/@Resources/Data/Xlsx/UserDataTable.xlsx
+++ b/TankSurvivors/Assets/@Resources/Data/Xlsx/UserDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0dudd\Desktop\공부\ExcelToTabText\ExcelToTabText\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TankSurvivors\TankSurvivors\Assets\@Resources\Data\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937DA48E-8E19-4FF6-A970-0CC457FB9FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934B279A-2CEC-4B87-ADB2-181BB6C19587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="4725" windowWidth="30450" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTableUser" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -97,6 +97,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;맑은 고딕&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -124,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -136,6 +143,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -358,18 +368,18 @@
   </sheetPr>
   <dimension ref="A1:Y100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -402,12 +412,12 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="14.4">
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>5</v>
+      <c r="C2" s="5">
+        <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -432,12 +442,12 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="14.4">
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <v>30</v>
+      <c r="C3" s="5">
+        <v>25</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -462,11 +472,11 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="14.4">
       <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>65</v>
       </c>
       <c r="D4" s="2"/>
@@ -492,11 +502,11 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="14.4">
       <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>110</v>
       </c>
       <c r="D5" s="2"/>
@@ -522,11 +532,11 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="14.4">
       <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>190</v>
       </c>
       <c r="D6" s="2"/>
@@ -552,11 +562,11 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="14.4">
       <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>305</v>
       </c>
       <c r="D7" s="2"/>
@@ -582,11 +592,11 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="14.4">
       <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>455</v>
       </c>
       <c r="D8" s="2"/>
@@ -612,11 +622,11 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="14.4">
       <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>640</v>
       </c>
       <c r="D9" s="2"/>
@@ -642,11 +652,11 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="14.4">
       <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>860</v>
       </c>
       <c r="D10" s="2"/>
@@ -672,11 +682,11 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="14.4">
       <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>1125</v>
       </c>
       <c r="D11" s="2"/>
@@ -702,11 +712,11 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="14.4">
       <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>1435</v>
       </c>
       <c r="D12" s="2"/>
@@ -732,11 +742,11 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="14.4">
       <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>1790</v>
       </c>
       <c r="D13" s="2"/>
@@ -762,11 +772,11 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="14.4">
       <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>2190</v>
       </c>
       <c r="D14" s="2"/>
@@ -792,11 +802,11 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
     </row>
-    <row r="15" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="14.4">
       <c r="B15" s="3">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>2635</v>
       </c>
       <c r="D15" s="2"/>
@@ -822,11 +832,11 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
     </row>
-    <row r="16" spans="1:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="14.4">
       <c r="B16" s="3">
         <v>15</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>3160</v>
       </c>
       <c r="D16" s="2"/>
@@ -852,11 +862,11 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
     </row>
-    <row r="17" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" ht="14.4">
       <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>3765</v>
       </c>
       <c r="D17" s="2"/>
@@ -882,11 +892,11 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" ht="14.4">
       <c r="B18" s="3">
         <v>17</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>4450</v>
       </c>
       <c r="D18" s="2"/>
@@ -912,11 +922,11 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" ht="14.4">
       <c r="B19" s="3">
         <v>18</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>5215</v>
       </c>
       <c r="D19" s="2"/>
@@ -942,11 +952,11 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="20" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" ht="14.4">
       <c r="B20" s="3">
         <v>19</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>6060</v>
       </c>
       <c r="D20" s="2"/>
@@ -972,11 +982,11 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" ht="14.4">
       <c r="B21" s="3">
         <v>20</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <v>7030</v>
       </c>
       <c r="D21" s="2"/>
@@ -1002,11 +1012,11 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
     </row>
-    <row r="22" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" ht="14.4">
       <c r="B22" s="3">
         <v>21</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <v>8125</v>
       </c>
       <c r="D22" s="2"/>
@@ -1032,11 +1042,11 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" ht="14.4">
       <c r="B23" s="3">
         <v>22</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <v>9345</v>
       </c>
       <c r="D23" s="2"/>
@@ -1062,11 +1072,11 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" ht="14.4">
       <c r="B24" s="3">
         <v>23</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <v>10690</v>
       </c>
       <c r="D24" s="2"/>
@@ -1092,11 +1102,11 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" ht="14.4">
       <c r="B25" s="3">
         <v>24</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <v>12160</v>
       </c>
       <c r="D25" s="2"/>
@@ -1122,11 +1132,11 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" ht="14.4">
       <c r="B26" s="3">
         <v>25</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <v>13835</v>
       </c>
       <c r="D26" s="2"/>
@@ -1152,11 +1162,11 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" ht="14.4">
       <c r="B27" s="3">
         <v>26</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="5">
         <v>15715</v>
       </c>
       <c r="D27" s="2"/>
@@ -1182,11 +1192,11 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" ht="14.4">
       <c r="B28" s="3">
         <v>27</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="5">
         <v>17800</v>
       </c>
       <c r="D28" s="2"/>
@@ -1212,11 +1222,11 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" ht="14.4">
       <c r="B29" s="3">
         <v>28</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="5">
         <v>20090</v>
       </c>
       <c r="D29" s="2"/>
@@ -1242,11 +1252,11 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" ht="14.4">
       <c r="B30" s="3">
         <v>29</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <v>22585</v>
       </c>
       <c r="D30" s="2"/>
@@ -1272,11 +1282,11 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25" ht="14.4">
       <c r="B31" s="3">
         <v>30</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
         <v>25410</v>
       </c>
       <c r="D31" s="2"/>
@@ -1302,11 +1312,11 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:25" ht="14.4">
       <c r="B32" s="3">
         <v>31</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <v>28565</v>
       </c>
       <c r="D32" s="2"/>
@@ -1332,11 +1342,11 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" ht="14.4">
       <c r="B33" s="3">
         <v>32</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="5">
         <v>32050</v>
       </c>
       <c r="D33" s="2"/>
@@ -1362,11 +1372,11 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
     </row>
-    <row r="34" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" ht="14.4">
       <c r="B34" s="3">
         <v>33</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
         <v>35865</v>
       </c>
       <c r="D34" s="2"/>
@@ -1392,11 +1402,11 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:25" ht="14.4">
       <c r="B35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="5">
         <v>40010</v>
       </c>
       <c r="D35" s="2"/>
@@ -1422,11 +1432,11 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:25" ht="14.4">
       <c r="B36" s="3">
         <v>35</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="5">
         <v>44690</v>
       </c>
       <c r="D36" s="2"/>
@@ -1452,11 +1462,11 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" ht="14.4">
       <c r="B37" s="3">
         <v>36</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="5">
         <v>49905</v>
       </c>
       <c r="D37" s="2"/>
@@ -1482,11 +1492,11 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" ht="14.4">
       <c r="B38" s="3">
         <v>37</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="5">
         <v>55655</v>
       </c>
       <c r="D38" s="2"/>
@@ -1512,11 +1522,11 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" ht="14.4">
       <c r="B39" s="3">
         <v>38</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="5">
         <v>61940</v>
       </c>
       <c r="D39" s="2"/>
@@ -1542,11 +1552,11 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:25" ht="14.4">
       <c r="B40" s="3">
         <v>39</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="5">
         <v>68760</v>
       </c>
       <c r="D40" s="2"/>
@@ -1572,11 +1582,11 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:25" ht="14.4">
       <c r="B41" s="3">
         <v>40</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="5">
         <v>76445</v>
       </c>
       <c r="D41" s="2"/>
@@ -1602,11 +1612,11 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" ht="14.4">
       <c r="B42" s="3">
         <v>41</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="5">
         <v>84995</v>
       </c>
       <c r="D42" s="2"/>
@@ -1632,11 +1642,11 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" ht="14.4">
       <c r="B43" s="3">
         <v>42</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="5">
         <v>94410</v>
       </c>
       <c r="D43" s="2"/>
@@ -1662,11 +1672,11 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" ht="14.4">
       <c r="B44" s="3">
         <v>43</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="5">
         <v>104690</v>
       </c>
       <c r="D44" s="2"/>
@@ -1692,11 +1702,11 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" ht="14.4">
       <c r="B45" s="3">
         <v>44</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="5">
         <v>115835</v>
       </c>
       <c r="D45" s="2"/>
@@ -1722,11 +1732,11 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" ht="14.4">
       <c r="B46" s="3">
         <v>45</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="5">
         <v>128380</v>
       </c>
       <c r="D46" s="2"/>
@@ -1752,11 +1762,11 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" ht="14.4">
       <c r="B47" s="3">
         <v>46</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="5">
         <v>142325</v>
       </c>
       <c r="D47" s="2"/>
@@ -1782,11 +1792,11 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
     </row>
-    <row r="48" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" ht="14.4">
       <c r="B48" s="3">
         <v>47</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="5">
         <v>157670</v>
       </c>
       <c r="D48" s="2"/>
@@ -1812,11 +1822,11 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
     </row>
-    <row r="49" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:25" ht="14.4">
       <c r="B49" s="3">
         <v>48</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="5">
         <v>174415</v>
       </c>
       <c r="D49" s="2"/>
@@ -1842,11 +1852,11 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
     </row>
-    <row r="50" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:25" ht="14.4">
       <c r="B50" s="3">
         <v>49</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="5">
         <v>192560</v>
       </c>
       <c r="D50" s="2"/>
@@ -1872,11 +1882,11 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
     </row>
-    <row r="51" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:25" ht="14.4">
       <c r="B51" s="3">
         <v>50</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="5">
         <v>212970</v>
       </c>
       <c r="D51" s="2"/>
@@ -1902,11 +1912,11 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
     </row>
-    <row r="52" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:25" ht="14.4">
       <c r="B52" s="3">
         <v>51</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="5">
         <v>235645</v>
       </c>
       <c r="D52" s="2"/>
@@ -1932,11 +1942,11 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
     </row>
-    <row r="53" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:25" ht="14.4">
       <c r="B53" s="3">
         <v>52</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="5">
         <v>260585</v>
       </c>
       <c r="D53" s="2"/>
@@ -1962,11 +1972,11 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
     </row>
-    <row r="54" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:25" ht="14.4">
       <c r="B54" s="3">
         <v>53</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="5">
         <v>287790</v>
       </c>
       <c r="D54" s="2"/>
@@ -1992,11 +2002,11 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
     </row>
-    <row r="55" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:25" ht="14.4">
       <c r="B55" s="3">
         <v>54</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="5">
         <v>317260</v>
       </c>
       <c r="D55" s="2"/>
@@ -2022,11 +2032,11 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:25" ht="14.4">
       <c r="B56" s="3">
         <v>55</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="5">
         <v>350395</v>
       </c>
       <c r="D56" s="2"/>
@@ -2052,11 +2062,11 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:25" ht="14.4">
       <c r="B57" s="3">
         <v>56</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="5">
         <v>387195</v>
       </c>
       <c r="D57" s="2"/>
@@ -2082,11 +2092,11 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:25" ht="14.4">
       <c r="B58" s="3">
         <v>57</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="5">
         <v>427660</v>
       </c>
       <c r="D58" s="2"/>
@@ -2112,11 +2122,11 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:25" ht="14.4">
       <c r="B59" s="3">
         <v>58</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="5">
         <v>471790</v>
       </c>
       <c r="D59" s="2"/>
@@ -2142,11 +2152,11 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:25" ht="14.4">
       <c r="B60" s="3">
         <v>59</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="5">
         <v>519585</v>
       </c>
       <c r="D60" s="2"/>
@@ -2172,11 +2182,11 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:25" ht="14.4">
       <c r="B61" s="3">
         <v>60</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="5">
         <v>573310</v>
       </c>
       <c r="D61" s="2"/>
@@ -2202,11 +2212,11 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:25" ht="14.4">
       <c r="B62" s="3">
         <v>61</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="5">
         <v>632965</v>
       </c>
       <c r="D62" s="2"/>
@@ -2232,11 +2242,11 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:25" ht="14.4">
       <c r="B63" s="3">
         <v>62</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="5">
         <v>698550</v>
       </c>
       <c r="D63" s="2"/>
@@ -2262,11 +2272,11 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:25" ht="14.4">
       <c r="B64" s="3">
         <v>63</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="5">
         <v>770065</v>
       </c>
       <c r="D64" s="2"/>
@@ -2292,11 +2302,11 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
     </row>
-    <row r="65" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:25" ht="14.4">
       <c r="B65" s="3">
         <v>64</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="5">
         <v>847510</v>
       </c>
       <c r="D65" s="2"/>
@@ -2322,11 +2332,11 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
     </row>
-    <row r="66" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:25" ht="14.4">
       <c r="B66" s="3">
         <v>65</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="5">
         <v>934550</v>
       </c>
       <c r="D66" s="2"/>
@@ -2352,11 +2362,11 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
     </row>
-    <row r="67" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" ht="14.4">
       <c r="B67" s="3">
         <v>66</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="5">
         <v>1031185</v>
       </c>
       <c r="D67" s="2"/>
@@ -2382,11 +2392,11 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
     </row>
-    <row r="68" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:25" ht="14.4">
       <c r="B68" s="3">
         <v>67</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="5">
         <v>1137415</v>
       </c>
       <c r="D68" s="2"/>
@@ -2412,11 +2422,11 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
     </row>
-    <row r="69" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:25" ht="14.4">
       <c r="B69" s="3">
         <v>68</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="5">
         <v>1253240</v>
       </c>
       <c r="D69" s="2"/>
@@ -2442,11 +2452,11 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
     </row>
-    <row r="70" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:25" ht="14.4">
       <c r="B70" s="3">
         <v>69</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="5">
         <v>1378660</v>
       </c>
       <c r="D70" s="2"/>
@@ -2472,11 +2482,11 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
     </row>
-    <row r="71" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" ht="14.4">
       <c r="B71" s="3">
         <v>70</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="5">
         <v>1519605</v>
       </c>
       <c r="D71" s="2"/>
@@ -2502,11 +2512,11 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
     </row>
-    <row r="72" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:25" ht="14.4">
       <c r="B72" s="3">
         <v>71</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="5">
         <v>1676075</v>
       </c>
       <c r="D72" s="2"/>
@@ -2532,11 +2542,11 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
     </row>
-    <row r="73" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" ht="14.4">
       <c r="B73" s="3">
         <v>72</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="5">
         <v>1848070</v>
       </c>
       <c r="D73" s="2"/>
@@ -2562,11 +2572,11 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
     </row>
-    <row r="74" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:25" ht="14.4">
       <c r="B74" s="3">
         <v>73</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="5">
         <v>2035590</v>
       </c>
       <c r="D74" s="2"/>
@@ -2592,11 +2602,11 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
     </row>
-    <row r="75" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:25" ht="14.4">
       <c r="B75" s="3">
         <v>74</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="5">
         <v>2238635</v>
       </c>
       <c r="D75" s="2"/>
@@ -2622,11 +2632,11 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
     </row>
-    <row r="76" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25" ht="14.4">
       <c r="B76" s="3">
         <v>75</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="5">
         <v>2466800</v>
       </c>
       <c r="D76" s="2"/>
@@ -2652,11 +2662,11 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
     </row>
-    <row r="77" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" ht="14.4">
       <c r="B77" s="3">
         <v>76</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="5">
         <v>2720085</v>
       </c>
       <c r="D77" s="2"/>
@@ -2682,11 +2692,11 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
     </row>
-    <row r="78" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:25" ht="14.4">
       <c r="B78" s="3">
         <v>77</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="5">
         <v>2998490</v>
       </c>
       <c r="D78" s="2"/>
@@ -2712,11 +2722,11 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
     </row>
-    <row r="79" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:25" ht="14.4">
       <c r="B79" s="3">
         <v>78</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="5">
         <v>3302015</v>
       </c>
       <c r="D79" s="2"/>
@@ -2742,11 +2752,11 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
     </row>
-    <row r="80" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" ht="14.4">
       <c r="B80" s="3">
         <v>79</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="5">
         <v>3630660</v>
       </c>
       <c r="D80" s="2"/>
@@ -2772,11 +2782,11 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
     </row>
-    <row r="81" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:25" ht="14.4">
       <c r="B81" s="3">
         <v>80</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="5">
         <v>3999950</v>
       </c>
       <c r="D81" s="2"/>
@@ -2802,11 +2812,11 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
     </row>
-    <row r="82" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:25" ht="14.4">
       <c r="B82" s="3">
         <v>81</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="5">
         <v>4409885</v>
       </c>
       <c r="D82" s="2"/>
@@ -2832,11 +2842,11 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
     </row>
-    <row r="83" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:25" ht="14.4">
       <c r="B83" s="3">
         <v>82</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="5">
         <v>4860465</v>
       </c>
       <c r="D83" s="2"/>
@@ -2862,11 +2872,11 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
     </row>
-    <row r="84" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:25" ht="14.4">
       <c r="B84" s="3">
         <v>83</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="5">
         <v>5351690</v>
       </c>
       <c r="D84" s="2"/>
@@ -2892,11 +2902,11 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
     </row>
-    <row r="85" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:25" ht="14.4">
       <c r="B85" s="3">
         <v>84</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="5">
         <v>5883560</v>
       </c>
       <c r="D85" s="2"/>
@@ -2922,11 +2932,11 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
     </row>
-    <row r="86" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:25" ht="14.4">
       <c r="B86" s="3">
         <v>85</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="5">
         <v>6481195</v>
       </c>
       <c r="D86" s="2"/>
@@ -2952,11 +2962,11 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
     </row>
-    <row r="87" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:25" ht="14.4">
       <c r="B87" s="3">
         <v>86</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="5">
         <v>7144595</v>
       </c>
       <c r="D87" s="2"/>
@@ -2982,11 +2992,11 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:25" ht="14.4">
       <c r="B88" s="3">
         <v>87</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="5">
         <v>7873760</v>
       </c>
       <c r="D88" s="2"/>
@@ -3012,11 +3022,11 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
     </row>
-    <row r="89" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:25" ht="14.4">
       <c r="B89" s="3">
         <v>88</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="5">
         <v>8668690</v>
       </c>
       <c r="D89" s="2"/>
@@ -3042,11 +3052,11 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
     </row>
-    <row r="90" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:25" ht="14.4">
       <c r="B90" s="3">
         <v>89</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="5">
         <v>9529385</v>
       </c>
       <c r="D90" s="2"/>
@@ -3072,11 +3082,11 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
     </row>
-    <row r="91" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:25" ht="14.4">
       <c r="B91" s="3">
         <v>90</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="5">
         <v>10496490</v>
       </c>
       <c r="D91" s="2"/>
@@ -3102,11 +3112,11 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
     </row>
-    <row r="92" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:25" ht="14.4">
       <c r="B92" s="3">
         <v>91</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="5">
         <v>11570005</v>
       </c>
       <c r="D92" s="2"/>
@@ -3132,11 +3142,11 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
     </row>
-    <row r="93" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:25" ht="14.4">
       <c r="B93" s="3">
         <v>92</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="5">
         <v>12749930</v>
       </c>
       <c r="D93" s="2"/>
@@ -3162,11 +3172,11 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
     </row>
-    <row r="94" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:25" ht="14.4">
       <c r="B94" s="3">
         <v>93</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="5">
         <v>14036265</v>
       </c>
       <c r="D94" s="2"/>
@@ -3192,11 +3202,11 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
     </row>
-    <row r="95" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:25" ht="14.4">
       <c r="B95" s="3">
         <v>94</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="5">
         <v>15429010</v>
       </c>
       <c r="D95" s="2"/>
@@ -3222,11 +3232,11 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
     </row>
-    <row r="96" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:25" ht="14.4">
       <c r="B96" s="3">
         <v>95</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="5">
         <v>16993930</v>
       </c>
       <c r="D96" s="2"/>
@@ -3252,11 +3262,11 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
     </row>
-    <row r="97" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:25" ht="14.4">
       <c r="B97" s="3">
         <v>96</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="5">
         <v>18731025</v>
       </c>
       <c r="D97" s="2"/>
@@ -3282,11 +3292,11 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
     </row>
-    <row r="98" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:25" ht="14.4">
       <c r="B98" s="3">
         <v>97</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="5">
         <v>20640295</v>
       </c>
       <c r="D98" s="2"/>
@@ -3312,11 +3322,11 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
     </row>
-    <row r="99" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:25" ht="14.4">
       <c r="B99" s="3">
         <v>98</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="5">
         <v>22721740</v>
       </c>
       <c r="D99" s="2"/>
@@ -3342,11 +3352,11 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
     </row>
-    <row r="100" spans="2:25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:25" ht="14.4">
       <c r="B100" s="3">
         <v>99</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="5">
         <v>24975360</v>
       </c>
       <c r="D100" s="2"/>
